--- a/out.xlsx
+++ b/out.xlsx
@@ -7,14 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="out" sheetId="1" r:id="rId1"/>
+    <sheet name="out_0" sheetId="1" r:id="rId1"/>
+    <sheet name="out_1" sheetId="2" r:id="rId2"/>
+    <sheet name="out_2" sheetId="3" r:id="rId3"/>
+    <sheet name="out_3" sheetId="4" r:id="rId4"/>
+    <sheet name="out_4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+  <si>
+    <t>None</t>
+  </si>
   <si>
     <t>min_value</t>
   </si>
@@ -389,369 +396,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.03003149854488414</v>
+        <v>0.04296891940920613</v>
       </c>
       <c r="B2">
-        <v>0.09317819164135573</v>
+        <v>0.04296891940920613</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>58151.91</v>
+        <v>58211.605</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>58227.848</v>
+        <v>57842.711</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3">
-        <v>0.03003149854488414</v>
+        <v>0.06186140664151244</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>58148.449</v>
+        <v>58145.563</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>58490.207</v>
+        <v>58147.195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>58211.605</v>
+        <v>58268.633</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>58201.094</v>
+        <v>57956.043</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>58268.633</v>
+        <v>58153.391</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>58023.844</v>
+        <v>58137.215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>58467.906</v>
+        <v>58490.207</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>58151.91</v>
+        <v>57871.137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>58487.664</v>
+        <v>58334.555</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>57877.262</v>
+        <v>58519.691</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>57637.551</v>
+        <v>57811.164</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>58113.273</v>
+        <v>58487.664</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>58140.707</v>
+        <v>58151.91</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>58034.395</v>
+        <v>57811.164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>57979.859</v>
+        <v>57879.496</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>58487.664</v>
+        <v>58291.84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>58167.398</v>
+        <v>58008.453</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>58167.398</v>
+        <v>58130.465</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>58034.395</v>
+        <v>58158.246</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>58446.582</v>
+        <v>58113.273</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>58269.109</v>
+        <v>58210.168</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>58291.84</v>
+        <v>58490.207</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>58373.438</v>
+        <v>58012.012</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F14">
-        <v>58065.789</v>
+        <v>58045.586</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>57842.711</v>
+        <v>57871.414</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>58146.219</v>
+        <v>58211.605</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>58147.195</v>
+        <v>58198.211</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>58022.969</v>
+        <v>58188.973</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>58021.555</v>
+        <v>57637.551</v>
       </c>
       <c r="E17">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>58139.844</v>
+        <v>58130.953</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>57871.137</v>
+        <v>58021.555</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>57427.84</v>
+        <v>58033.598</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>58285.211</v>
+        <v>58188.973</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>58526.051</v>
+        <v>58064.785</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>57871.414</v>
+        <v>58291.84</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>58309.773</v>
+        <v>58151.91</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>58022.969</v>
+        <v>58373.438</v>
       </c>
       <c r="E21">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21">
-        <v>58045.586</v>
+        <v>58145.563</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>57908.699</v>
+        <v>58146.219</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>58210.168</v>
+        <v>58153.391</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>58188.973</v>
+        <v>58438.129</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>58334.188</v>
+        <v>58022.969</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>58291.84</v>
+        <v>57908.699</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>57871.414</v>
+        <v>58210.168</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>58108.949</v>
+        <v>57871.137</v>
       </c>
       <c r="E25">
         <v>39</v>
@@ -762,114 +787,2751 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>58065.789</v>
+        <v>58358.555</v>
       </c>
       <c r="E26">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>58373.438</v>
+        <v>58034.395</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>58130.465</v>
+        <v>58065.789</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F27">
-        <v>58268.633</v>
+        <v>58008.453</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>58146.219</v>
+        <v>58101.453</v>
       </c>
       <c r="E28">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>58153.391</v>
+        <v>58526.051</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>58438.129</v>
+        <v>58285.211</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>57811.164</v>
+        <v>58269.109</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>58334.188</v>
+        <v>58147.195</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>57842.711</v>
+        <v>58140.707</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>58446.582</v>
+        <v>58137.215</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>58285.211</v>
+        <v>58065.789</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>58198.211</v>
+        <v>58421.148</v>
       </c>
       <c r="E32">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>58145.563</v>
+        <v>58224.496</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33">
+        <v>52</v>
+      </c>
+      <c r="D33">
+        <v>58139.844</v>
+      </c>
+      <c r="E33">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>58198.211</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>58064.785</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>58088.086</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>58227.848</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>58358.555</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <v>57843.551</v>
+      </c>
+      <c r="E36">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>58139.844</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>57959.086</v>
+      </c>
+      <c r="E37">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>58023.844</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>58034.395</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>58268.633</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>58045.586</v>
+      </c>
+      <c r="E39">
+        <v>56</v>
+      </c>
+      <c r="F39">
+        <v>58146.219</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>58088.086</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>58104.137</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>58020.02</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <v>58373.438</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>58148.449</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>58158.246</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>58023.844</v>
+      </c>
+      <c r="E43">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>58108.949</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>58033.598</v>
+      </c>
+      <c r="E44">
+        <v>66</v>
+      </c>
+      <c r="F44">
+        <v>57683.879</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>58334.188</v>
+      </c>
+      <c r="E45">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <v>57843.551</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>58130.465</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>58227.848</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>58108.949</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>58167.398</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48">
         <v>13</v>
       </c>
+      <c r="D48">
+        <v>58526.051</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>58101.453</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>58140.707</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>58328.859</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>58328.859</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>57879.496</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>58224.496</v>
+      </c>
+      <c r="E51">
+        <v>37</v>
+      </c>
+      <c r="F51">
+        <v>58012.012</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>57427.84</v>
+      </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>58438.129</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>58487.664</v>
+      </c>
+      <c r="E53">
+        <v>43</v>
+      </c>
+      <c r="F53">
+        <v>58285.211</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>58167.398</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>57979.859</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>58467.906</v>
+      </c>
+      <c r="E55">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>58201.094</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <v>58130.953</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>57959.086</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>58269.109</v>
+      </c>
+      <c r="E57">
+        <v>47</v>
+      </c>
+      <c r="F57">
+        <v>58021.555</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>57842.711</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>57871.414</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>58201.094</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>58245.402</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>58245.402</v>
+      </c>
+      <c r="E60">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>58334.188</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>57979.859</v>
+      </c>
+      <c r="E61">
+        <v>33</v>
+      </c>
+      <c r="F61">
+        <v>58309.773</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>57683.879</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <v>58334.555</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>58104.137</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>57908.699</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>57956.043</v>
+      </c>
+      <c r="E64">
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>58020.02</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>57877.262</v>
+      </c>
+      <c r="E65">
+        <v>59</v>
+      </c>
+      <c r="F65">
+        <v>57427.84</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>58022.969</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>58446.582</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>58309.773</v>
+      </c>
+      <c r="E67">
+        <v>54</v>
+      </c>
+      <c r="F67">
+        <v>58148.449</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>58165.406</v>
+      </c>
+      <c r="E68">
+        <v>58</v>
+      </c>
+      <c r="F68">
+        <v>58421.148</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>58446.582</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>58467.906</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>58113.273</v>
+      </c>
+      <c r="E70">
+        <v>64</v>
+      </c>
+      <c r="F70">
+        <v>57877.262</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>58519.691</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>58165.406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0.09341613100981942</v>
+      </c>
+      <c r="B2">
+        <v>0.09341613100981942</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>58165.406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>58022.969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>58421.148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>58291.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>58526.051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>58268.633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>58137.215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>58033.598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>57908.699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>57877.262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>58108.949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>58438.129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>58211.605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>58023.844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>58130.953</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>58148.449</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>58065.789</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>58158.246</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>58446.582</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>57843.551</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>58487.664</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>57979.859</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>58020.02</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>57956.043</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>58147.195</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>58140.707</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>58113.273</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>58373.438</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>58146.219</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>58064.785</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>58467.906</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <v>32</v>
+      </c>
       <c r="D33">
+        <v>58088.086</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>58151.91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>57427.84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>58145.563</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>58012.012</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>57871.137</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>58490.207</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>58034.395</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>58224.496</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>58188.973</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>58358.555</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>58519.691</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>58328.859</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>58008.453</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>57879.496</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>58021.555</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>57842.711</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>58045.586</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>58101.453</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>58269.109</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>58309.773</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>58245.402</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>58130.465</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>57959.086</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <v>34</v>
+      </c>
+      <c r="D57">
+        <v>58167.398</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>58334.555</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>58104.137</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>58227.848</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>58198.211</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62">
+        <v>42</v>
+      </c>
+      <c r="D62">
+        <v>57811.164</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>58285.211</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>58334.188</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>57683.879</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>58153.391</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>57871.414</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>58210.168</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69">
+        <v>58201.094</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>58139.844</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>57637.551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0.06890429104615371</v>
+      </c>
+      <c r="B2">
+        <v>0.07848565000193466</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>57871.137</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>57871.137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>0.06890429104615371</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>58065.789</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>57877.262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>57879.496</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>58033.598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>58139.844</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>58467.906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>58328.859</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>58328.859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>57871.414</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>58438.129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>58021.555</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>58291.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>58245.402</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>58012.012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>58210.168</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>57843.551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>58211.605</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>58101.453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>58020.02</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>58023.844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>58467.906</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>58224.496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>58227.848</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>58140.707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>58188.973</v>
+      </c>
+      <c r="E15">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>58145.563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>58373.438</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>58139.844</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>58130.953</v>
+      </c>
+      <c r="E17">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>58147.195</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>58269.109</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>58358.555</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>58140.707</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>57979.859</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>58285.211</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>58146.219</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>58147.195</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>58211.605</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>57683.879</v>
+      </c>
+      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>58167.398</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>58309.773</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>58130.465</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>58034.395</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>57637.551</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>58104.137</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>58201.094</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>58146.219</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>57871.414</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>57979.859</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>58309.773</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>58167.398</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>57811.164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>57811.164</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <v>58269.109</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>58101.453</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>58245.402</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>57959.086</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>58227.848</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>58108.949</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
         <v>58526.051</v>
       </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>58268.633</v>
+      </c>
       <c r="E33">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>58148.449</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>58145.563</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>57879.496</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>58064.785</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>58064.785</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>58137.215</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>58487.664</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>57843.551</v>
+      </c>
+      <c r="E37">
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>58210.168</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>58519.691</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>57959.086</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>58334.555</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>57956.043</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>58446.582</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>58022.969</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>58158.246</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>58268.633</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>58022.969</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>58034.395</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>58023.844</v>
+      </c>
+      <c r="E43">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>58008.453</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>58421.148</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>58065.789</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>58490.207</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>58020.02</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>58358.555</v>
+      </c>
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>58285.211</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>58113.273</v>
+      </c>
+      <c r="E47">
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <v>58045.586</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>58088.086</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>58519.691</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>58201.094</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
+      </c>
+      <c r="F49">
+        <v>58373.438</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>58198.211</v>
+      </c>
+      <c r="E50">
+        <v>46</v>
+      </c>
+      <c r="F50">
+        <v>58130.953</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>58012.012</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>58334.188</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>57877.262</v>
+      </c>
+      <c r="E52">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>58165.406</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>57427.84</v>
+      </c>
+      <c r="E53">
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <v>57908.699</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>58334.188</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>58137.215</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>58224.496</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>58104.137</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>58526.051</v>
+      </c>
+      <c r="E56">
+        <v>66</v>
+      </c>
+      <c r="F56">
+        <v>57683.879</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>58045.586</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>58446.582</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>57908.699</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>58151.91</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>57637.551</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>58188.973</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>58438.129</v>
+      </c>
+      <c r="E60">
+        <v>67</v>
+      </c>
+      <c r="F60">
+        <v>58153.391</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>57842.711</v>
+      </c>
+      <c r="E61">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>58021.555</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>58033.598</v>
+      </c>
+      <c r="E62">
+        <v>32</v>
+      </c>
+      <c r="F62">
+        <v>58088.086</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>58130.465</v>
+      </c>
+      <c r="E63">
+        <v>59</v>
+      </c>
+      <c r="F63">
+        <v>57427.84</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>58291.84</v>
+      </c>
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="F64">
+        <v>58108.949</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>57956.043</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>58158.246</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>58487.664</v>
+      </c>
+      <c r="E66">
+        <v>23</v>
+      </c>
+      <c r="F66">
+        <v>58113.273</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>58148.449</v>
+      </c>
+      <c r="E67">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <v>58334.555</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>58153.391</v>
+      </c>
+      <c r="E68">
+        <v>57</v>
+      </c>
+      <c r="F68">
+        <v>58198.211</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>58151.91</v>
+      </c>
+      <c r="E69">
+        <v>58</v>
+      </c>
+      <c r="F69">
+        <v>58421.148</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70">
+        <v>45</v>
+      </c>
+      <c r="D70">
+        <v>58008.453</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>58490.207</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>58165.406</v>
+      </c>
+      <c r="E71">
+        <v>51</v>
+      </c>
+      <c r="F71">
+        <v>57842.711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0.07206559271286309</v>
+      </c>
+      <c r="B2">
+        <v>0.07206559271286309</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>57871.137</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>58438.129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>0.08232194177624624</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>57979.859</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>58268.633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>58140.707</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>58033.598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>58526.051</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>57843.551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>57959.086</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>58334.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>58020.02</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>58148.449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>57811.164</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>57877.262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
         <v>50</v>
       </c>
+      <c r="D9">
+        <v>58245.402</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>58151.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>58012.012</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>57879.496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>58065.789</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>58373.438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>57879.496</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>58285.211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>58227.848</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>58146.219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>57637.551</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>58045.586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>58211.605</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>58020.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>58519.691</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>58167.398</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>58165.406</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>57811.164</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>58285.211</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>58023.844</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>58438.129</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>58153.391</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>58146.219</v>
+      </c>
+      <c r="E20">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>57683.879</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>58188.973</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>58165.406</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>58224.496</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>58269.109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>58147.195</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>58227.848</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>58167.398</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>58101.453</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>58137.215</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>58487.664</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>58034.395</v>
+      </c>
+      <c r="E26">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>58198.211</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>57956.043</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>57959.086</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>58148.449</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>58210.168</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>58108.949</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>58201.094</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>57908.699</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>57871.414</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>58145.563</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>58291.84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>58104.137</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>57956.043</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>58113.273</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
       <c r="F33">
-        <v>58245.402</v>
+        <v>58088.086</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -880,354 +3542,354 @@
         <v>58088.086</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <v>58467.906</v>
+        <v>58526.051</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>57877.262</v>
+        <v>58358.555</v>
       </c>
       <c r="E35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F35">
-        <v>58211.605</v>
+        <v>58309.773</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D36">
-        <v>57879.496</v>
+        <v>57683.879</v>
       </c>
       <c r="E36">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>58158.246</v>
+        <v>58328.859</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>58045.586</v>
+        <v>58130.465</v>
       </c>
       <c r="E37">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F37">
-        <v>58165.406</v>
+        <v>57908.699</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>57843.551</v>
+        <v>58446.582</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>58358.555</v>
+        <v>58490.207</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>58334.555</v>
+        <v>58309.773</v>
       </c>
       <c r="E39">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>58148.449</v>
+        <v>58224.496</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D40">
-        <v>58158.246</v>
+        <v>57877.262</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F40">
-        <v>57843.551</v>
+        <v>58421.148</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41">
-        <v>57683.879</v>
+        <v>58201.094</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F41">
-        <v>57956.043</v>
+        <v>58145.563</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>58008.453</v>
+        <v>58334.188</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F42">
-        <v>58130.465</v>
+        <v>58130.953</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>58328.859</v>
+        <v>58064.785</v>
       </c>
       <c r="E43">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F43">
-        <v>58334.555</v>
+        <v>58021.555</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>58490.207</v>
+        <v>58268.633</v>
       </c>
       <c r="E44">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F44">
-        <v>57879.496</v>
+        <v>57842.711</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>58064.785</v>
+        <v>58269.109</v>
       </c>
       <c r="E45">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>58421.148</v>
+        <v>58158.246</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>58137.215</v>
+        <v>57842.711</v>
       </c>
       <c r="E46">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F46">
-        <v>58130.953</v>
+        <v>58065.789</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>58020.02</v>
+        <v>58045.586</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F47">
-        <v>58101.453</v>
+        <v>57427.84</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>58358.555</v>
+        <v>58490.207</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F48">
-        <v>58188.973</v>
+        <v>58008.453</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>58104.137</v>
+        <v>58421.148</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>58020.02</v>
+        <v>58064.785</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="C50">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>58113.273</v>
+        <v>58022.969</v>
       </c>
       <c r="E50">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F50">
-        <v>58198.211</v>
+        <v>58022.969</v>
       </c>
     </row>
     <row r="51" spans="3:6">
       <c r="C51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>57959.086</v>
+        <v>58467.906</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>58269.109</v>
+        <v>58104.137</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>58210.168</v>
+        <v>58101.453</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>57979.859</v>
+        <v>58137.215</v>
       </c>
     </row>
     <row r="53" spans="3:6">
       <c r="C53">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>57811.164</v>
+        <v>57427.84</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>57959.086</v>
+        <v>58130.465</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>58023.844</v>
+        <v>58139.844</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>58104.137</v>
+        <v>57871.137</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="C55">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D55">
-        <v>58421.148</v>
+        <v>58210.168</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>58137.215</v>
+        <v>58334.555</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>58145.563</v>
+        <v>58334.555</v>
       </c>
       <c r="E56">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>58021.555</v>
+        <v>58245.402</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="C57">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>57956.043</v>
+        <v>58033.598</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F57">
-        <v>58064.785</v>
+        <v>58147.195</v>
       </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D58">
-        <v>58245.402</v>
+        <v>58487.664</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F58">
-        <v>58328.859</v>
+        <v>58139.844</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D59">
-        <v>58224.496</v>
+        <v>58373.438</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1238,10 +3900,10 @@
     </row>
     <row r="60" spans="3:6">
       <c r="C60">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>58130.953</v>
+        <v>57871.414</v>
       </c>
       <c r="E60">
         <v>30</v>
@@ -1252,156 +3914,156 @@
     </row>
     <row r="61" spans="3:6">
       <c r="C61">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>58227.848</v>
+        <v>58291.84</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F61">
-        <v>58224.496</v>
+        <v>58211.605</v>
       </c>
     </row>
     <row r="62" spans="3:6">
       <c r="C62">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>58201.094</v>
+        <v>58130.953</v>
       </c>
       <c r="E62">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F62">
-        <v>57908.699</v>
+        <v>57979.859</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="C63">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D63">
-        <v>58012.012</v>
+        <v>58008.453</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>58438.129</v>
+        <v>58188.973</v>
       </c>
     </row>
     <row r="64" spans="3:6">
       <c r="C64">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D64">
-        <v>57427.84</v>
+        <v>58023.844</v>
       </c>
       <c r="E64">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>58108.949</v>
+        <v>58467.906</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="C65">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>58309.773</v>
+        <v>57843.551</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F65">
-        <v>58033.598</v>
+        <v>58113.273</v>
       </c>
     </row>
     <row r="66" spans="3:6">
       <c r="C66">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D66">
-        <v>58033.598</v>
+        <v>58021.555</v>
       </c>
       <c r="E66">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F66">
-        <v>58012.012</v>
+        <v>58034.395</v>
       </c>
     </row>
     <row r="67" spans="3:6">
       <c r="C67">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D67">
-        <v>58519.691</v>
+        <v>58158.246</v>
       </c>
       <c r="E67">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F67">
-        <v>58008.453</v>
+        <v>58108.949</v>
       </c>
     </row>
     <row r="68" spans="3:6">
       <c r="C68">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>58101.453</v>
+        <v>58328.859</v>
       </c>
       <c r="E68">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F68">
-        <v>57683.879</v>
+        <v>57637.551</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="C69">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>58153.391</v>
+        <v>58151.91</v>
       </c>
       <c r="E69">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>58147.195</v>
+        <v>58446.582</v>
       </c>
     </row>
     <row r="70" spans="3:6">
       <c r="C70">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D70">
-        <v>58165.406</v>
+        <v>58153.391</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>57871.137</v>
+        <v>58358.555</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="C71">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D71">
-        <v>58139.844</v>
+        <v>58198.211</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F71">
-        <v>58088.086</v>
+        <v>58012.012</v>
       </c>
     </row>
   </sheetData>
